--- a/data/tables.xlsx
+++ b/data/tables.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CB253A-C938-4A1F-A7FA-480C3C387F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tables" sheetId="1" r:id="rId1"/>
@@ -26,10 +27,18 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tables!$A$1:$J$466</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -4756,7 +4765,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5153,12 +5162,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:J466"/>
   <sheetViews>
-    <sheetView topLeftCell="A339" workbookViewId="0">
-      <selection activeCell="D347" sqref="D347"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5256,7 +5265,7 @@
       </c>
       <c r="J3">
         <f>SUM(H:H)</f>
-        <v>205168</v>
+        <v>205319</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -5374,7 +5383,7 @@
       </c>
       <c r="J7">
         <f>SUMIF(A:A,A54,H:H)</f>
-        <v>161252</v>
+        <v>161403</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -5433,7 +5442,7 @@
       </c>
       <c r="J9">
         <f>J7-J11</f>
-        <v>78086</v>
+        <v>78213</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -5492,7 +5501,7 @@
       </c>
       <c r="J11">
         <f>SUM(titles!D2)+SUM(titles!D3)</f>
-        <v>83166</v>
+        <v>83190</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -8025,7 +8034,7 @@
         <v>1094</v>
       </c>
       <c r="H107">
-        <v>2639</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -9013,7 +9022,7 @@
         <v>1094</v>
       </c>
       <c r="H145">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -9039,7 +9048,7 @@
         <v>1094</v>
       </c>
       <c r="H146">
-        <v>338</v>
+        <v>356</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -9065,7 +9074,7 @@
         <v>1094</v>
       </c>
       <c r="H147">
-        <v>234</v>
+        <v>254</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -9091,7 +9100,7 @@
         <v>1094</v>
       </c>
       <c r="H148">
-        <v>252</v>
+        <v>268</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -9117,7 +9126,7 @@
         <v>1094</v>
       </c>
       <c r="H149">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -9143,7 +9152,7 @@
         <v>1094</v>
       </c>
       <c r="H150">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -9533,7 +9542,7 @@
         <v>1094</v>
       </c>
       <c r="H165">
-        <v>45245</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -9767,7 +9776,7 @@
         <v>1094</v>
       </c>
       <c r="H174">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -9897,7 +9906,7 @@
         <v>1094</v>
       </c>
       <c r="H179">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -9923,7 +9932,7 @@
         <v>1094</v>
       </c>
       <c r="H180">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -9975,7 +9984,7 @@
         <v>1094</v>
       </c>
       <c r="H182">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -10521,7 +10530,7 @@
         <v>1094</v>
       </c>
       <c r="H203">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
@@ -10989,7 +10998,7 @@
         <v>1094</v>
       </c>
       <c r="H221">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
@@ -11119,7 +11128,7 @@
         <v>1094</v>
       </c>
       <c r="H226">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
@@ -11301,7 +11310,7 @@
         <v>1094</v>
       </c>
       <c r="H233">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
@@ -11353,7 +11362,7 @@
         <v>1094</v>
       </c>
       <c r="H235">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
@@ -12393,7 +12402,7 @@
         <v>1094</v>
       </c>
       <c r="H275">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
@@ -12445,7 +12454,7 @@
         <v>1094</v>
       </c>
       <c r="H277">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
@@ -12471,7 +12480,7 @@
         <v>1094</v>
       </c>
       <c r="H278">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
@@ -12549,7 +12558,7 @@
         <v>1094</v>
       </c>
       <c r="H281">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
@@ -12627,7 +12636,7 @@
         <v>1094</v>
       </c>
       <c r="H284">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
@@ -12783,7 +12792,7 @@
         <v>1094</v>
       </c>
       <c r="H290">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
@@ -12809,7 +12818,7 @@
         <v>1094</v>
       </c>
       <c r="H291">
-        <v>825</v>
+        <v>830</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
@@ -12835,7 +12844,7 @@
         <v>1094</v>
       </c>
       <c r="H292">
-        <v>1591</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
@@ -12887,7 +12896,7 @@
         <v>1094</v>
       </c>
       <c r="H294">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
@@ -17366,7 +17375,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I496">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I496">
     <sortCondition ref="B2:B496"/>
     <sortCondition ref="C2:C496"/>
     <sortCondition ref="D2:D496"/>
@@ -17380,7 +17389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="工作表10"/>
   <dimension ref="A1:J13"/>
   <sheetViews>
@@ -17495,7 +17504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="工作表7"/>
   <dimension ref="A1:I7"/>
   <sheetViews>
@@ -17650,7 +17659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:XFC33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -34386,11 +34395,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="工作表8"/>
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -35851,7 +35860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -35967,7 +35976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr codeName="工作表5"/>
   <dimension ref="A1:N6"/>
   <sheetViews>
@@ -36125,7 +36134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="工作表6"/>
   <dimension ref="A1:D71"/>
   <sheetViews>
@@ -36162,7 +36171,7 @@
       </c>
       <c r="D2">
         <f>SUMIF(tables!C:C,A2,tables!H:H)</f>
-        <v>45245</v>
+        <v>45269</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -36210,7 +36219,7 @@
       </c>
       <c r="D6">
         <f>SUMIF(tables!C:C,A6,tables!H:H)</f>
-        <v>11938</v>
+        <v>11939</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -36234,7 +36243,7 @@
       </c>
       <c r="D8">
         <f>SUMIF(tables!C:C,A8,tables!H:H)</f>
-        <v>9956</v>
+        <v>9980</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -36246,7 +36255,7 @@
       </c>
       <c r="D9">
         <f>SUMIF(tables!C:C,A9,tables!H:H)</f>
-        <v>9950</v>
+        <v>9970</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -36330,7 +36339,7 @@
       </c>
       <c r="D16">
         <f>SUMIF(tables!C:C,A16,tables!H:H)</f>
-        <v>2088</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -36997,7 +37006,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D71">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D71">
     <sortCondition descending="1" ref="D2:D71"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -37007,7 +37016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView topLeftCell="A76" workbookViewId="0">
@@ -38370,7 +38379,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="工作表4"/>
   <dimension ref="A1:F31"/>
   <sheetViews>
@@ -38825,7 +38834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="工作表3"/>
   <dimension ref="A1:O17"/>
   <sheetViews>
@@ -39486,7 +39495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="工作表2"/>
   <dimension ref="A1:Y64"/>
   <sheetViews>
@@ -42979,7 +42988,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:W64">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W64">
     <sortCondition ref="A2:A64"/>
     <sortCondition ref="B2:B64"/>
     <sortCondition ref="C2:C64"/>
@@ -42990,7 +42999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="工作表9"/>
   <dimension ref="A1:K16"/>
   <sheetViews>
@@ -43400,7 +43409,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J14">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J14">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -43409,7 +43418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -44594,7 +44603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/tables.xlsx
+++ b/data/tables.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CB253A-C938-4A1F-A7FA-480C3C387F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864B4B95-A257-453F-804F-582688256874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tables" sheetId="1" r:id="rId1"/>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="J3">
         <f>SUM(H:H)</f>
-        <v>205319</v>
+        <v>205321</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -5383,7 +5383,7 @@
       </c>
       <c r="J7">
         <f>SUMIF(A:A,A54,H:H)</f>
-        <v>161403</v>
+        <v>161405</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -5442,7 +5442,7 @@
       </c>
       <c r="J9">
         <f>J7-J11</f>
-        <v>78213</v>
+        <v>78215</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -11726,7 +11726,7 @@
         <v>1094</v>
       </c>
       <c r="H249">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
@@ -36195,7 +36195,7 @@
       </c>
       <c r="D4">
         <f>SUMIF(tables!C:C,A4,tables!H:H)</f>
-        <v>15093</v>
+        <v>15095</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">

--- a/data/tables.xlsx
+++ b/data/tables.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864B4B95-A257-453F-804F-582688256874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69ADB19-F004-4597-B41D-8FC15C99D717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9855" yWindow="510" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tables" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5154" uniqueCount="1292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5164" uniqueCount="1296">
   <si>
     <t>File</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4759,6 +4759,21 @@
   </si>
   <si>
     <t>x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>1-40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-35</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheet</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5166,7 +5181,7 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:J466"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+    <sheetView topLeftCell="A92" workbookViewId="0">
       <selection activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
@@ -39501,7 +39516,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V1" sqref="V1"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -43001,10 +43016,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="工作表9"/>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -43012,7 +43027,7 @@
     <col min="1" max="1" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -43046,11 +43061,17 @@
       <c r="K1" s="1" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>802</v>
       </c>
+      <c r="B2" t="s">
+        <v>1292</v>
+      </c>
       <c r="C2">
         <v>1</v>
       </c>
@@ -43073,10 +43094,13 @@
         <v>825</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1172</v>
       </c>
+      <c r="B3" t="s">
+        <v>1292</v>
+      </c>
       <c r="D3">
         <v>1</v>
       </c>
@@ -43090,10 +43114,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>803</v>
       </c>
+      <c r="B4" t="s">
+        <v>1292</v>
+      </c>
       <c r="C4">
         <v>1</v>
       </c>
@@ -43116,10 +43143,13 @@
         <v>825</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>807</v>
       </c>
+      <c r="B5" t="s">
+        <v>1292</v>
+      </c>
       <c r="C5">
         <v>1</v>
       </c>
@@ -43142,10 +43172,13 @@
         <v>825</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>804</v>
       </c>
+      <c r="B6" t="s">
+        <v>1292</v>
+      </c>
       <c r="C6">
         <v>1</v>
       </c>
@@ -43168,10 +43201,13 @@
         <v>825</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>805</v>
       </c>
+      <c r="B7" t="s">
+        <v>1292</v>
+      </c>
       <c r="C7">
         <v>1</v>
       </c>
@@ -43194,10 +43230,13 @@
         <v>825</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>806</v>
       </c>
+      <c r="B8" t="s">
+        <v>1292</v>
+      </c>
       <c r="C8">
         <v>1</v>
       </c>
@@ -43220,7 +43259,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>1184</v>
       </c>
@@ -43246,7 +43285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>800</v>
       </c>
@@ -43268,8 +43307,11 @@
       <c r="I10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>799</v>
       </c>
@@ -43291,8 +43333,11 @@
       <c r="I11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>808</v>
       </c>
@@ -43309,7 +43354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>801</v>
       </c>
@@ -43333,7 +43378,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>815</v>
       </c>
@@ -43356,7 +43401,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>1181</v>
       </c>
@@ -43382,7 +43427,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>1182</v>
       </c>

--- a/data/tables.xlsx
+++ b/data/tables.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69ADB19-F004-4597-B41D-8FC15C99D717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AD8824-98DB-4BBB-9070-9CF4C1CBA132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9855" yWindow="510" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4815" yWindow="2085" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tables" sheetId="1" r:id="rId1"/>
@@ -5280,7 +5280,7 @@
       </c>
       <c r="J3">
         <f>SUM(H:H)</f>
-        <v>205321</v>
+        <v>205324</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="J19">
         <f>J3-J5-J7</f>
-        <v>13195</v>
+        <v>13198</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -5811,7 +5811,7 @@
       </c>
       <c r="J21">
         <f>J3-J5-J17-J7</f>
-        <v>5061</v>
+        <v>5064</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -15592,7 +15592,7 @@
         <v>1094</v>
       </c>
       <c r="H397">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.25">
@@ -15956,7 +15956,7 @@
         <v>1094</v>
       </c>
       <c r="H411">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.25">
@@ -36414,7 +36414,7 @@
       </c>
       <c r="D21">
         <f>SUMIF(tables!C:C,A21,tables!H:H)</f>
-        <v>1220</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -36573,7 +36573,7 @@
       </c>
       <c r="D34">
         <f>SUMIF(tables!C:C,A34,tables!H:H)</f>
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">

--- a/data/tables.xlsx
+++ b/data/tables.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AD8824-98DB-4BBB-9070-9CF4C1CBA132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA0A28D-5E3F-4DD2-BEA7-9DF67169EEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4815" yWindow="2085" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tables" sheetId="1" r:id="rId1"/>
@@ -5181,7 +5181,7 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:J466"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A392" workbookViewId="0">
       <selection activeCell="H107" sqref="H107"/>
     </sheetView>
   </sheetViews>
@@ -43018,7 +43018,7 @@
   <sheetPr codeName="工作表9"/>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>

--- a/data/tables.xlsx
+++ b/data/tables.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA0A28D-5E3F-4DD2-BEA7-9DF67169EEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94134E7D-E70B-452E-8155-B8FF0D485C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <sheet name="IHS" sheetId="5" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tables!$A$1:$J$466</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tables!$A$1:$H$466</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5164" uniqueCount="1296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5164" uniqueCount="1298">
   <si>
     <t>File</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4774,6 +4774,13 @@
   </si>
   <si>
     <t>sheet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>web crawler/manually</t>
+  </si>
+  <si>
+    <t>web crawler/manually</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5178,11 +5185,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="工作表1"/>
+  <sheetPr codeName="工作表1" filterMode="1"/>
   <dimension ref="A1:J466"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A392" workbookViewId="0">
-      <selection activeCell="H107" sqref="H107"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G313" sqref="G313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5224,7 +5231,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -5244,7 +5251,7 @@
         <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>1094</v>
+        <v>1297</v>
       </c>
       <c r="H2">
         <v>44</v>
@@ -5253,7 +5260,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -5273,7 +5280,7 @@
         <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H3">
         <v>44</v>
@@ -5283,7 +5290,7 @@
         <v>205324</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -5303,7 +5310,7 @@
         <v>45</v>
       </c>
       <c r="G4" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H4">
         <v>71</v>
@@ -5312,7 +5319,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -5332,7 +5339,7 @@
         <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H5">
         <v>71</v>
@@ -5342,7 +5349,7 @@
         <v>30721</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -5362,7 +5369,7 @@
         <v>44</v>
       </c>
       <c r="G6" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H6">
         <v>71</v>
@@ -5371,7 +5378,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -5391,7 +5398,7 @@
         <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H7">
         <v>180</v>
@@ -5401,7 +5408,7 @@
         <v>161405</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -5421,7 +5428,7 @@
         <v>45</v>
       </c>
       <c r="G8" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H8">
         <v>1000</v>
@@ -5430,7 +5437,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -5450,7 +5457,7 @@
         <v>45</v>
       </c>
       <c r="G9" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H9">
         <v>3000</v>
@@ -5460,7 +5467,7 @@
         <v>78215</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -5480,7 +5487,7 @@
         <v>45</v>
       </c>
       <c r="G10" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H10">
         <v>723</v>
@@ -5489,7 +5496,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -5509,7 +5516,7 @@
         <v>45</v>
       </c>
       <c r="G11" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H11">
         <v>84</v>
@@ -5519,7 +5526,7 @@
         <v>83190</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -5539,7 +5546,7 @@
         <v>45</v>
       </c>
       <c r="G12" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H12">
         <v>80</v>
@@ -5548,7 +5555,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -5568,7 +5575,7 @@
         <v>45</v>
       </c>
       <c r="G13" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H13">
         <v>546</v>
@@ -5578,7 +5585,7 @@
         <v>8132</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -5598,7 +5605,7 @@
         <v>45</v>
       </c>
       <c r="G14" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H14">
         <v>213</v>
@@ -5607,7 +5614,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -5627,7 +5634,7 @@
         <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H15">
         <v>66</v>
@@ -5637,7 +5644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -5657,7 +5664,7 @@
         <v>760</v>
       </c>
       <c r="G16" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H16">
         <v>118</v>
@@ -5666,7 +5673,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -5686,7 +5693,7 @@
         <v>759</v>
       </c>
       <c r="G17" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H17">
         <v>118</v>
@@ -5696,7 +5703,7 @@
         <v>8134</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -5716,7 +5723,7 @@
         <v>759</v>
       </c>
       <c r="G18" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H18">
         <v>118</v>
@@ -5725,7 +5732,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -5745,7 +5752,7 @@
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H19">
         <v>117</v>
@@ -5755,7 +5762,7 @@
         <v>13198</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -5775,7 +5782,7 @@
         <v>44</v>
       </c>
       <c r="G20" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H20">
         <v>117</v>
@@ -5784,7 +5791,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>71</v>
       </c>
@@ -5804,7 +5811,7 @@
         <v>45</v>
       </c>
       <c r="G21" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H21">
         <v>117</v>
@@ -5814,7 +5821,7 @@
         <v>5064</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -5834,14 +5841,14 @@
         <v>44</v>
       </c>
       <c r="G22" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H22">
         <v>117</v>
       </c>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>71</v>
       </c>
@@ -5861,13 +5868,13 @@
         <v>45</v>
       </c>
       <c r="G23" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H23">
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -5887,14 +5894,14 @@
         <v>44</v>
       </c>
       <c r="G24" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H24">
         <v>117</v>
       </c>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -5914,13 +5921,13 @@
         <v>45</v>
       </c>
       <c r="G25" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H25">
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>71</v>
       </c>
@@ -5940,13 +5947,13 @@
         <v>44</v>
       </c>
       <c r="G26" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H26">
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>71</v>
       </c>
@@ -5966,13 +5973,13 @@
         <v>45</v>
       </c>
       <c r="G27" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H27">
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>71</v>
       </c>
@@ -5992,13 +5999,13 @@
         <v>44</v>
       </c>
       <c r="G28" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H28">
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -6018,13 +6025,13 @@
         <v>45</v>
       </c>
       <c r="G29" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H29">
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>71</v>
       </c>
@@ -6044,13 +6051,13 @@
         <v>44</v>
       </c>
       <c r="G30" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H30">
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -6070,13 +6077,13 @@
         <v>45</v>
       </c>
       <c r="G31" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H31">
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -6096,13 +6103,13 @@
         <v>44</v>
       </c>
       <c r="G32" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H32">
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -6122,13 +6129,13 @@
         <v>45</v>
       </c>
       <c r="G33" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H33">
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -6148,13 +6155,13 @@
         <v>44</v>
       </c>
       <c r="G34" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H34">
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -6174,13 +6181,13 @@
         <v>45</v>
       </c>
       <c r="G35" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H35">
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -6200,13 +6207,13 @@
         <v>44</v>
       </c>
       <c r="G36" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H36">
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>71</v>
       </c>
@@ -6226,13 +6233,13 @@
         <v>45</v>
       </c>
       <c r="G37" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H37">
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>71</v>
       </c>
@@ -6252,13 +6259,13 @@
         <v>44</v>
       </c>
       <c r="G38" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H38">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>71</v>
       </c>
@@ -6278,13 +6285,13 @@
         <v>46</v>
       </c>
       <c r="G39" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H39">
         <v>2041</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -6304,13 +6311,13 @@
         <v>46</v>
       </c>
       <c r="G40" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H40">
         <v>910</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>71</v>
       </c>
@@ -6330,13 +6337,13 @@
         <v>46</v>
       </c>
       <c r="G41" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H41">
         <v>2343</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>71</v>
       </c>
@@ -6356,13 +6363,13 @@
         <v>46</v>
       </c>
       <c r="G42" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H42">
         <v>686</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>71</v>
       </c>
@@ -6382,13 +6389,13 @@
         <v>46</v>
       </c>
       <c r="G43" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H43">
         <v>1536</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>71</v>
       </c>
@@ -6408,13 +6415,13 @@
         <v>46</v>
       </c>
       <c r="G44" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H44">
         <v>4396</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>71</v>
       </c>
@@ -6434,13 +6441,13 @@
         <v>46</v>
       </c>
       <c r="G45" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H45">
         <v>1144</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -6460,13 +6467,13 @@
         <v>46</v>
       </c>
       <c r="G46" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H46">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>71</v>
       </c>
@@ -6486,13 +6493,13 @@
         <v>46</v>
       </c>
       <c r="G47" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H47">
         <v>2326</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>71</v>
       </c>
@@ -6512,13 +6519,13 @@
         <v>46</v>
       </c>
       <c r="G48" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H48">
         <v>3983</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>71</v>
       </c>
@@ -6538,13 +6545,13 @@
         <v>46</v>
       </c>
       <c r="G49" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H49">
         <v>167</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>71</v>
       </c>
@@ -6564,13 +6571,13 @@
         <v>46</v>
       </c>
       <c r="G50" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H50">
         <v>462</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>71</v>
       </c>
@@ -6590,13 +6597,13 @@
         <v>46</v>
       </c>
       <c r="G51" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H51">
         <v>1368</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>71</v>
       </c>
@@ -6616,13 +6623,13 @@
         <v>46</v>
       </c>
       <c r="G52" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H52">
         <v>228</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>71</v>
       </c>
@@ -6642,7 +6649,7 @@
         <v>46</v>
       </c>
       <c r="G53" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H53">
         <v>152</v>
@@ -6700,7 +6707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>165</v>
       </c>
@@ -6726,7 +6733,7 @@
         <v>5896</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>165</v>
       </c>
@@ -6752,7 +6759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>165</v>
       </c>
@@ -6778,7 +6785,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>165</v>
       </c>
@@ -6804,7 +6811,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>165</v>
       </c>
@@ -6830,7 +6837,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>165</v>
       </c>
@@ -6856,7 +6863,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>165</v>
       </c>
@@ -6882,7 +6889,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>165</v>
       </c>
@@ -6908,7 +6915,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>165</v>
       </c>
@@ -6934,7 +6941,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>165</v>
       </c>
@@ -6960,7 +6967,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>165</v>
       </c>
@@ -6986,7 +6993,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>165</v>
       </c>
@@ -7012,7 +7019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>165</v>
       </c>
@@ -7038,7 +7045,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>165</v>
       </c>
@@ -7064,7 +7071,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>165</v>
       </c>
@@ -7090,7 +7097,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>165</v>
       </c>
@@ -7116,7 +7123,7 @@
         <v>2646</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>165</v>
       </c>
@@ -7142,7 +7149,7 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>165</v>
       </c>
@@ -7168,7 +7175,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>165</v>
       </c>
@@ -7194,7 +7201,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>165</v>
       </c>
@@ -7220,7 +7227,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>165</v>
       </c>
@@ -7246,7 +7253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>165</v>
       </c>
@@ -7272,7 +7279,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>165</v>
       </c>
@@ -7298,7 +7305,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>165</v>
       </c>
@@ -7324,7 +7331,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>165</v>
       </c>
@@ -7350,7 +7357,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>165</v>
       </c>
@@ -7376,7 +7383,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>165</v>
       </c>
@@ -7402,7 +7409,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>165</v>
       </c>
@@ -7428,7 +7435,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>165</v>
       </c>
@@ -7454,7 +7461,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>165</v>
       </c>
@@ -7480,7 +7487,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>165</v>
       </c>
@@ -7506,7 +7513,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>165</v>
       </c>
@@ -7532,7 +7539,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>165</v>
       </c>
@@ -7558,7 +7565,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>165</v>
       </c>
@@ -7584,7 +7591,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>165</v>
       </c>
@@ -7610,7 +7617,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>165</v>
       </c>
@@ -7636,7 +7643,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>165</v>
       </c>
@@ -7662,7 +7669,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>165</v>
       </c>
@@ -7688,7 +7695,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>165</v>
       </c>
@@ -7714,7 +7721,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>165</v>
       </c>
@@ -7740,7 +7747,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>165</v>
       </c>
@@ -7766,7 +7773,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>165</v>
       </c>
@@ -7792,7 +7799,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>165</v>
       </c>
@@ -7818,7 +7825,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>165</v>
       </c>
@@ -7844,7 +7851,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>165</v>
       </c>
@@ -7870,7 +7877,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>165</v>
       </c>
@@ -7896,7 +7903,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>165</v>
       </c>
@@ -7922,7 +7929,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>165</v>
       </c>
@@ -7948,7 +7955,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>165</v>
       </c>
@@ -7974,7 +7981,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>165</v>
       </c>
@@ -8000,7 +8007,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>165</v>
       </c>
@@ -8026,7 +8033,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>165</v>
       </c>
@@ -8052,7 +8059,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>165</v>
       </c>
@@ -8078,7 +8085,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>165</v>
       </c>
@@ -8104,7 +8111,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>165</v>
       </c>
@@ -8130,7 +8137,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>165</v>
       </c>
@@ -8156,7 +8163,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>165</v>
       </c>
@@ -8182,7 +8189,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>165</v>
       </c>
@@ -8208,7 +8215,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>165</v>
       </c>
@@ -8234,7 +8241,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>165</v>
       </c>
@@ -8260,7 +8267,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>165</v>
       </c>
@@ -8286,7 +8293,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>165</v>
       </c>
@@ -8312,7 +8319,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>165</v>
       </c>
@@ -8338,7 +8345,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>165</v>
       </c>
@@ -8364,7 +8371,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>165</v>
       </c>
@@ -8390,7 +8397,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>165</v>
       </c>
@@ -8416,7 +8423,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>165</v>
       </c>
@@ -8442,7 +8449,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>165</v>
       </c>
@@ -8468,7 +8475,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>165</v>
       </c>
@@ -8494,7 +8501,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>165</v>
       </c>
@@ -8520,7 +8527,7 @@
         <v>2634</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>165</v>
       </c>
@@ -8546,7 +8553,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>165</v>
       </c>
@@ -8572,7 +8579,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>165</v>
       </c>
@@ -8598,7 +8605,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>165</v>
       </c>
@@ -8624,7 +8631,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>165</v>
       </c>
@@ -8650,7 +8657,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>165</v>
       </c>
@@ -8676,7 +8683,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>165</v>
       </c>
@@ -8702,7 +8709,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>165</v>
       </c>
@@ -8728,7 +8735,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>165</v>
       </c>
@@ -8754,7 +8761,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>165</v>
       </c>
@@ -8780,7 +8787,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>165</v>
       </c>
@@ -8806,7 +8813,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>165</v>
       </c>
@@ -8832,7 +8839,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>165</v>
       </c>
@@ -8858,7 +8865,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>165</v>
       </c>
@@ -8884,7 +8891,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>165</v>
       </c>
@@ -8910,7 +8917,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>165</v>
       </c>
@@ -8936,7 +8943,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>165</v>
       </c>
@@ -8962,7 +8969,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>165</v>
       </c>
@@ -8988,7 +8995,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>165</v>
       </c>
@@ -9014,7 +9021,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>165</v>
       </c>
@@ -9040,7 +9047,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>165</v>
       </c>
@@ -9066,7 +9073,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>165</v>
       </c>
@@ -9092,7 +9099,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>165</v>
       </c>
@@ -9118,7 +9125,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>165</v>
       </c>
@@ -9144,7 +9151,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>165</v>
       </c>
@@ -9170,7 +9177,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>165</v>
       </c>
@@ -9196,7 +9203,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>165</v>
       </c>
@@ -9222,7 +9229,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>165</v>
       </c>
@@ -9248,7 +9255,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>165</v>
       </c>
@@ -9274,7 +9281,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>165</v>
       </c>
@@ -9300,7 +9307,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>165</v>
       </c>
@@ -9326,7 +9333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>165</v>
       </c>
@@ -9352,7 +9359,7 @@
         <v>3056</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>165</v>
       </c>
@@ -9378,7 +9385,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>165</v>
       </c>
@@ -9404,7 +9411,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>165</v>
       </c>
@@ -9430,7 +9437,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>165</v>
       </c>
@@ -9456,7 +9463,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>165</v>
       </c>
@@ -9482,7 +9489,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>165</v>
       </c>
@@ -9508,7 +9515,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>165</v>
       </c>
@@ -9534,7 +9541,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>165</v>
       </c>
@@ -9560,7 +9567,7 @@
         <v>45269</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -9586,7 +9593,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>165</v>
       </c>
@@ -9612,7 +9619,7 @@
         <v>4351</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>165</v>
       </c>
@@ -9638,7 +9645,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>165</v>
       </c>
@@ -9664,7 +9671,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>165</v>
       </c>
@@ -9690,7 +9697,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>165</v>
       </c>
@@ -9716,7 +9723,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>165</v>
       </c>
@@ -9742,7 +9749,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>165</v>
       </c>
@@ -9768,7 +9775,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>165</v>
       </c>
@@ -9794,7 +9801,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>165</v>
       </c>
@@ -9820,7 +9827,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>165</v>
       </c>
@@ -9846,7 +9853,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>165</v>
       </c>
@@ -9872,7 +9879,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>165</v>
       </c>
@@ -9898,7 +9905,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>165</v>
       </c>
@@ -9924,7 +9931,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>165</v>
       </c>
@@ -9950,7 +9957,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>165</v>
       </c>
@@ -9976,7 +9983,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>165</v>
       </c>
@@ -10002,7 +10009,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>165</v>
       </c>
@@ -10028,7 +10035,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>165</v>
       </c>
@@ -10054,7 +10061,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>165</v>
       </c>
@@ -10080,7 +10087,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>165</v>
       </c>
@@ -10106,7 +10113,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>165</v>
       </c>
@@ -10132,7 +10139,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>165</v>
       </c>
@@ -10158,7 +10165,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>165</v>
       </c>
@@ -10184,7 +10191,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>165</v>
       </c>
@@ -10210,7 +10217,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>165</v>
       </c>
@@ -10236,7 +10243,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>165</v>
       </c>
@@ -10262,7 +10269,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>165</v>
       </c>
@@ -10288,7 +10295,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>165</v>
       </c>
@@ -10314,7 +10321,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>165</v>
       </c>
@@ -10340,7 +10347,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>165</v>
       </c>
@@ -10366,7 +10373,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>165</v>
       </c>
@@ -10392,7 +10399,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>165</v>
       </c>
@@ -10418,7 +10425,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>165</v>
       </c>
@@ -10444,7 +10451,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>165</v>
       </c>
@@ -10470,7 +10477,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>165</v>
       </c>
@@ -10496,7 +10503,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>165</v>
       </c>
@@ -10522,7 +10529,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>165</v>
       </c>
@@ -10548,7 +10555,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>165</v>
       </c>
@@ -10574,7 +10581,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>165</v>
       </c>
@@ -10600,7 +10607,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>165</v>
       </c>
@@ -10626,7 +10633,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>165</v>
       </c>
@@ -10652,7 +10659,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>165</v>
       </c>
@@ -10678,7 +10685,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>165</v>
       </c>
@@ -10704,7 +10711,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>165</v>
       </c>
@@ -10730,7 +10737,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>165</v>
       </c>
@@ -10756,7 +10763,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>165</v>
       </c>
@@ -10782,7 +10789,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>165</v>
       </c>
@@ -10808,7 +10815,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>165</v>
       </c>
@@ -10834,7 +10841,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>165</v>
       </c>
@@ -10860,7 +10867,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>165</v>
       </c>
@@ -10886,7 +10893,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>165</v>
       </c>
@@ -10912,7 +10919,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>165</v>
       </c>
@@ -10938,7 +10945,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>165</v>
       </c>
@@ -10964,7 +10971,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>165</v>
       </c>
@@ -10990,7 +10997,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>165</v>
       </c>
@@ -11016,7 +11023,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>165</v>
       </c>
@@ -11042,7 +11049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>165</v>
       </c>
@@ -11068,7 +11075,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>165</v>
       </c>
@@ -11094,7 +11101,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>165</v>
       </c>
@@ -11120,7 +11127,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>165</v>
       </c>
@@ -11146,7 +11153,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>165</v>
       </c>
@@ -11172,7 +11179,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>165</v>
       </c>
@@ -11198,7 +11205,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>165</v>
       </c>
@@ -11224,7 +11231,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>165</v>
       </c>
@@ -11250,7 +11257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>165</v>
       </c>
@@ -11276,7 +11283,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>165</v>
       </c>
@@ -11302,7 +11309,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>165</v>
       </c>
@@ -11328,7 +11335,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>165</v>
       </c>
@@ -11354,7 +11361,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>165</v>
       </c>
@@ -11380,7 +11387,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>165</v>
       </c>
@@ -11406,7 +11413,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>165</v>
       </c>
@@ -11432,7 +11439,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>165</v>
       </c>
@@ -11458,7 +11465,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>165</v>
       </c>
@@ -11484,7 +11491,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>165</v>
       </c>
@@ -11510,7 +11517,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>165</v>
       </c>
@@ -11536,7 +11543,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>165</v>
       </c>
@@ -11562,7 +11569,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>165</v>
       </c>
@@ -11588,7 +11595,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>165</v>
       </c>
@@ -11614,7 +11621,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>165</v>
       </c>
@@ -11640,7 +11647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>165</v>
       </c>
@@ -11666,7 +11673,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>165</v>
       </c>
@@ -11692,7 +11699,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>165</v>
       </c>
@@ -11718,7 +11725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>165</v>
       </c>
@@ -11744,7 +11751,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>165</v>
       </c>
@@ -11770,7 +11777,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>165</v>
       </c>
@@ -11796,7 +11803,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>165</v>
       </c>
@@ -11822,7 +11829,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>165</v>
       </c>
@@ -11848,7 +11855,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>165</v>
       </c>
@@ -11874,7 +11881,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>165</v>
       </c>
@@ -11900,7 +11907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>165</v>
       </c>
@@ -11926,7 +11933,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>165</v>
       </c>
@@ -11952,7 +11959,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>165</v>
       </c>
@@ -11978,7 +11985,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>165</v>
       </c>
@@ -12004,7 +12011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>165</v>
       </c>
@@ -12030,7 +12037,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>165</v>
       </c>
@@ -12056,7 +12063,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>165</v>
       </c>
@@ -12082,7 +12089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>165</v>
       </c>
@@ -12108,7 +12115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>165</v>
       </c>
@@ -12134,7 +12141,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>165</v>
       </c>
@@ -12160,7 +12167,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>165</v>
       </c>
@@ -12186,7 +12193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>165</v>
       </c>
@@ -12212,7 +12219,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>165</v>
       </c>
@@ -12238,7 +12245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>165</v>
       </c>
@@ -12264,7 +12271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>165</v>
       </c>
@@ -12290,7 +12297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>165</v>
       </c>
@@ -12316,7 +12323,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>165</v>
       </c>
@@ -12342,7 +12349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>165</v>
       </c>
@@ -12368,7 +12375,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>165</v>
       </c>
@@ -12394,7 +12401,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>165</v>
       </c>
@@ -12420,7 +12427,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>165</v>
       </c>
@@ -12446,7 +12453,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>165</v>
       </c>
@@ -12472,7 +12479,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>165</v>
       </c>
@@ -12498,7 +12505,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>165</v>
       </c>
@@ -12524,7 +12531,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>165</v>
       </c>
@@ -12550,7 +12557,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>165</v>
       </c>
@@ -12576,7 +12583,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>165</v>
       </c>
@@ -12602,7 +12609,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>165</v>
       </c>
@@ -12628,7 +12635,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>165</v>
       </c>
@@ -12654,7 +12661,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>165</v>
       </c>
@@ -12680,7 +12687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>165</v>
       </c>
@@ -12706,7 +12713,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>165</v>
       </c>
@@ -12732,7 +12739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>165</v>
       </c>
@@ -12758,7 +12765,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>165</v>
       </c>
@@ -12784,7 +12791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>165</v>
       </c>
@@ -12810,7 +12817,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>165</v>
       </c>
@@ -12836,7 +12843,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>165</v>
       </c>
@@ -12862,7 +12869,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>165</v>
       </c>
@@ -12888,7 +12895,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>165</v>
       </c>
@@ -12914,7 +12921,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>165</v>
       </c>
@@ -12940,7 +12947,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>165</v>
       </c>
@@ -12966,7 +12973,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>165</v>
       </c>
@@ -12992,7 +12999,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>165</v>
       </c>
@@ -13018,7 +13025,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>165</v>
       </c>
@@ -13044,7 +13051,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>165</v>
       </c>
@@ -13070,7 +13077,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>165</v>
       </c>
@@ -13096,7 +13103,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>165</v>
       </c>
@@ -13122,7 +13129,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>165</v>
       </c>
@@ -13148,7 +13155,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>165</v>
       </c>
@@ -13174,7 +13181,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>165</v>
       </c>
@@ -13220,7 +13227,7 @@
         <v>45</v>
       </c>
       <c r="G306" t="s">
-        <v>1094</v>
+        <v>1297</v>
       </c>
       <c r="H306">
         <v>9</v>
@@ -13246,7 +13253,7 @@
         <v>417</v>
       </c>
       <c r="G307" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H307">
         <v>8</v>
@@ -13272,7 +13279,7 @@
         <v>423</v>
       </c>
       <c r="G308" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H308">
         <v>9</v>
@@ -13298,7 +13305,7 @@
         <v>423</v>
       </c>
       <c r="G309" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H309">
         <v>7</v>
@@ -13324,7 +13331,7 @@
         <v>423</v>
       </c>
       <c r="G310" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H310">
         <v>2</v>
@@ -13350,7 +13357,7 @@
         <v>45</v>
       </c>
       <c r="G311" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H311">
         <v>10</v>
@@ -13376,7 +13383,7 @@
         <v>45</v>
       </c>
       <c r="G312" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H312">
         <v>399</v>
@@ -14636,7 +14643,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="361" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>73</v>
       </c>
@@ -14660,7 +14667,7 @@
       </c>
       <c r="I361" s="3"/>
     </row>
-    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>73</v>
       </c>
@@ -16401,7 +16408,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>72</v>
       </c>
@@ -17390,6 +17397,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H466" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="ETC/"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I496">
     <sortCondition ref="B2:B496"/>
     <sortCondition ref="C2:C496"/>

--- a/data/tables.xlsx
+++ b/data/tables.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94134E7D-E70B-452E-8155-B8FF0D485C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826AAF8B-B2CC-4190-A609-6FA7FE2D3E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5189,7 +5189,7 @@
   <dimension ref="A1:J466"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G313" sqref="G313"/>
+      <selection activeCell="I394" sqref="I394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13207,7 +13207,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>73</v>
       </c>
@@ -13233,7 +13233,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>73</v>
       </c>
@@ -13259,7 +13259,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>73</v>
       </c>
@@ -13285,7 +13285,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>73</v>
       </c>
@@ -13311,7 +13311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>73</v>
       </c>
@@ -13337,7 +13337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>73</v>
       </c>
@@ -13363,7 +13363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>73</v>
       </c>
@@ -13389,7 +13389,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>73</v>
       </c>
@@ -13409,13 +13409,13 @@
         <v>45</v>
       </c>
       <c r="G313" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H313">
         <v>133</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>73</v>
       </c>
@@ -13435,13 +13435,13 @@
         <v>45</v>
       </c>
       <c r="G314" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H314">
         <v>133</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>73</v>
       </c>
@@ -13461,13 +13461,13 @@
         <v>45</v>
       </c>
       <c r="G315" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H315">
         <v>133</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>73</v>
       </c>
@@ -13487,13 +13487,13 @@
         <v>45</v>
       </c>
       <c r="G316" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H316">
         <v>134</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>73</v>
       </c>
@@ -13513,13 +13513,13 @@
         <v>45</v>
       </c>
       <c r="G317" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H317">
         <v>134</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>73</v>
       </c>
@@ -13539,13 +13539,13 @@
         <v>45</v>
       </c>
       <c r="G318" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H318">
         <v>134</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>73</v>
       </c>
@@ -13565,13 +13565,13 @@
         <v>45</v>
       </c>
       <c r="G319" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H319">
         <v>134</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>73</v>
       </c>
@@ -13591,13 +13591,13 @@
         <v>45</v>
       </c>
       <c r="G320" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H320">
         <v>134</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>73</v>
       </c>
@@ -13617,13 +13617,13 @@
         <v>45</v>
       </c>
       <c r="G321" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H321">
         <v>134</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>73</v>
       </c>
@@ -13643,13 +13643,13 @@
         <v>45</v>
       </c>
       <c r="G322" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H322">
         <v>153</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>73</v>
       </c>
@@ -13669,13 +13669,13 @@
         <v>45</v>
       </c>
       <c r="G323" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H323">
         <v>45</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>73</v>
       </c>
@@ -13695,13 +13695,13 @@
         <v>45</v>
       </c>
       <c r="G324" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H324">
         <v>3</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>73</v>
       </c>
@@ -13721,13 +13721,13 @@
         <v>43</v>
       </c>
       <c r="G325" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H325">
         <v>13</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>73</v>
       </c>
@@ -13747,13 +13747,13 @@
         <v>43</v>
       </c>
       <c r="G326" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H326">
         <v>13</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>73</v>
       </c>
@@ -13773,13 +13773,13 @@
         <v>43</v>
       </c>
       <c r="G327" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H327">
         <v>66</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>73</v>
       </c>
@@ -13799,13 +13799,13 @@
         <v>43</v>
       </c>
       <c r="G328" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H328">
         <v>66</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>73</v>
       </c>
@@ -13825,13 +13825,13 @@
         <v>43</v>
       </c>
       <c r="G329" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H329">
         <v>15</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>73</v>
       </c>
@@ -13851,13 +13851,13 @@
         <v>43</v>
       </c>
       <c r="G330" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H330">
         <v>15</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>73</v>
       </c>
@@ -13877,13 +13877,13 @@
         <v>43</v>
       </c>
       <c r="G331" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H331">
         <v>66</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>73</v>
       </c>
@@ -13903,13 +13903,13 @@
         <v>43</v>
       </c>
       <c r="G332" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H332">
         <v>66</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>73</v>
       </c>
@@ -13929,13 +13929,13 @@
         <v>43</v>
       </c>
       <c r="G333" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H333">
         <v>19</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>73</v>
       </c>
@@ -13955,13 +13955,13 @@
         <v>43</v>
       </c>
       <c r="G334" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H334">
         <v>19</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>73</v>
       </c>
@@ -13981,13 +13981,13 @@
         <v>670</v>
       </c>
       <c r="G335" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H335">
         <v>296</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>73</v>
       </c>
@@ -14007,13 +14007,13 @@
         <v>671</v>
       </c>
       <c r="G336" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H336">
         <v>296</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>73</v>
       </c>
@@ -14033,13 +14033,13 @@
         <v>43</v>
       </c>
       <c r="G337" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H337">
         <v>9</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>73</v>
       </c>
@@ -14056,16 +14056,16 @@
         <v>0</v>
       </c>
       <c r="F338" t="s">
-        <v>655</v>
+        <v>128</v>
       </c>
       <c r="G338" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H338">
         <v>12</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>73</v>
       </c>
@@ -14085,13 +14085,13 @@
         <v>670</v>
       </c>
       <c r="G339" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H339">
         <v>130</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>73</v>
       </c>
@@ -14111,13 +14111,13 @@
         <v>671</v>
       </c>
       <c r="G340" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H340">
         <v>130</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>73</v>
       </c>
@@ -14137,13 +14137,13 @@
         <v>670</v>
       </c>
       <c r="G341" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H341">
         <v>139</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>73</v>
       </c>
@@ -14163,13 +14163,13 @@
         <v>671</v>
       </c>
       <c r="G342" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H342">
         <v>139</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>73</v>
       </c>
@@ -14189,13 +14189,13 @@
         <v>655</v>
       </c>
       <c r="G343" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H343">
         <v>22</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>73</v>
       </c>
@@ -14215,13 +14215,13 @@
         <v>655</v>
       </c>
       <c r="G344" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H344">
         <v>22</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>73</v>
       </c>
@@ -14241,14 +14241,14 @@
         <v>655</v>
       </c>
       <c r="G345" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H345">
         <v>330</v>
       </c>
       <c r="J345" s="6"/>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>73</v>
       </c>
@@ -14268,14 +14268,14 @@
         <v>669</v>
       </c>
       <c r="G346" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H346">
         <v>126</v>
       </c>
       <c r="J346" s="6"/>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>73</v>
       </c>
@@ -14295,13 +14295,13 @@
         <v>655</v>
       </c>
       <c r="G347" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H347">
         <v>18</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>73</v>
       </c>
@@ -14321,13 +14321,13 @@
         <v>655</v>
       </c>
       <c r="G348" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H348">
         <v>12</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>73</v>
       </c>
@@ -14347,13 +14347,13 @@
         <v>655</v>
       </c>
       <c r="G349" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H349">
         <v>12</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>73</v>
       </c>
@@ -14373,13 +14373,13 @@
         <v>655</v>
       </c>
       <c r="G350" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H350">
         <v>12</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>73</v>
       </c>
@@ -14399,13 +14399,13 @@
         <v>655</v>
       </c>
       <c r="G351" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H351">
         <v>12</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>73</v>
       </c>
@@ -14425,13 +14425,13 @@
         <v>655</v>
       </c>
       <c r="G352" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H352">
         <v>12</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>73</v>
       </c>
@@ -14451,13 +14451,13 @@
         <v>655</v>
       </c>
       <c r="G353" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H353">
         <v>18</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>73</v>
       </c>
@@ -14477,14 +14477,14 @@
         <v>128</v>
       </c>
       <c r="G354" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H354" s="6">
         <v>12</v>
       </c>
       <c r="I354" s="6"/>
     </row>
-    <row r="355" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>73</v>
       </c>
@@ -14504,14 +14504,14 @@
         <v>128</v>
       </c>
       <c r="G355" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H355" s="6">
         <v>12</v>
       </c>
       <c r="J355"/>
     </row>
-    <row r="356" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>73</v>
       </c>
@@ -14531,7 +14531,7 @@
         <v>670</v>
       </c>
       <c r="G356" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H356">
         <v>176</v>
@@ -14539,7 +14539,7 @@
       <c r="I356"/>
       <c r="J356"/>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>73</v>
       </c>
@@ -14559,13 +14559,13 @@
         <v>671</v>
       </c>
       <c r="G357" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H357">
         <v>176</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>73</v>
       </c>
@@ -14585,13 +14585,13 @@
         <v>128</v>
       </c>
       <c r="G358" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H358">
         <v>6</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>73</v>
       </c>
@@ -14611,13 +14611,13 @@
         <v>655</v>
       </c>
       <c r="G359" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H359">
         <v>18</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>73</v>
       </c>
@@ -14637,13 +14637,13 @@
         <v>655</v>
       </c>
       <c r="G360" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H360">
         <v>12</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>73</v>
       </c>
@@ -14667,7 +14667,7 @@
       </c>
       <c r="I361" s="3"/>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>73</v>
       </c>
@@ -14691,7 +14691,7 @@
       </c>
       <c r="I362" s="3"/>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>73</v>
       </c>
@@ -14717,7 +14717,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>1082</v>
       </c>
@@ -14743,7 +14743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>139</v>
       </c>
@@ -14769,7 +14769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>73</v>
       </c>
@@ -14795,7 +14795,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>73</v>
       </c>
@@ -14821,7 +14821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>73</v>
       </c>
@@ -14847,7 +14847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>73</v>
       </c>
@@ -14873,7 +14873,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>73</v>
       </c>
@@ -14899,7 +14899,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>73</v>
       </c>
@@ -14925,7 +14925,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>73</v>
       </c>
@@ -14951,7 +14951,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>73</v>
       </c>
@@ -14977,7 +14977,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>73</v>
       </c>
@@ -15003,7 +15003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>73</v>
       </c>
@@ -15029,7 +15029,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>73</v>
       </c>
@@ -15055,7 +15055,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>73</v>
       </c>
@@ -15081,7 +15081,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>73</v>
       </c>
@@ -15107,7 +15107,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>73</v>
       </c>
@@ -15133,7 +15133,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>73</v>
       </c>
@@ -15159,7 +15159,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>73</v>
       </c>
@@ -15185,7 +15185,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>73</v>
       </c>
@@ -15211,7 +15211,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>73</v>
       </c>
@@ -15237,7 +15237,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>73</v>
       </c>
@@ -15263,7 +15263,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>73</v>
       </c>
@@ -15289,7 +15289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>73</v>
       </c>
@@ -15316,7 +15316,7 @@
       </c>
       <c r="I386" s="10"/>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>73</v>
       </c>
@@ -15342,7 +15342,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>73</v>
       </c>
@@ -15368,7 +15368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>73</v>
       </c>
@@ -15394,7 +15394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>73</v>
       </c>
@@ -15420,7 +15420,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>73</v>
       </c>
@@ -15446,7 +15446,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>73</v>
       </c>
@@ -15472,7 +15472,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>73</v>
       </c>
@@ -17402,6 +17402,11 @@
       <filters>
         <filter val="ETC/"/>
       </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <customFilters>
+        <customFilter operator="notEqual" val="*BOC*"/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I496">
@@ -34429,10 +34434,10 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F47" sqref="F47"/>
+      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -36167,8 +36172,8 @@
   <sheetPr codeName="工作表6"/>
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -37048,8 +37053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -39529,8 +39534,8 @@
   <dimension ref="A1:Y64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/data/tables.xlsx
+++ b/data/tables.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826AAF8B-B2CC-4190-A609-6FA7FE2D3E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA414151-D48E-420B-B3D7-9A1F063B5F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4788,7 +4788,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4863,6 +4863,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4885,7 +4900,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4904,6 +4919,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -5188,8 +5205,8 @@
   <sheetPr codeName="工作表1" filterMode="1"/>
   <dimension ref="A1:J466"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I394" sqref="I394"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="G407" sqref="G407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5231,7 +5248,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -5260,7 +5277,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -5290,7 +5307,7 @@
         <v>205324</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -5319,7 +5336,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -5349,7 +5366,7 @@
         <v>30721</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -5378,7 +5395,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -5408,7 +5425,7 @@
         <v>161405</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -5437,7 +5454,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -5467,7 +5484,7 @@
         <v>78215</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -5496,7 +5513,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -5526,7 +5543,7 @@
         <v>83190</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -5555,7 +5572,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -5585,7 +5602,7 @@
         <v>8132</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -5614,7 +5631,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -5644,7 +5661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -5673,7 +5690,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -5703,7 +5720,7 @@
         <v>8134</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -5732,7 +5749,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -5762,7 +5779,7 @@
         <v>13198</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -5791,7 +5808,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>71</v>
       </c>
@@ -5821,7 +5838,7 @@
         <v>5064</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -5848,7 +5865,7 @@
       </c>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>71</v>
       </c>
@@ -5874,7 +5891,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -5901,7 +5918,7 @@
       </c>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -5927,7 +5944,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>71</v>
       </c>
@@ -5953,7 +5970,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>71</v>
       </c>
@@ -5979,7 +5996,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>71</v>
       </c>
@@ -6005,7 +6022,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -6031,7 +6048,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>71</v>
       </c>
@@ -6057,7 +6074,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -6083,7 +6100,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>71</v>
       </c>
@@ -6109,7 +6126,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -6135,7 +6152,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -6161,7 +6178,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -6187,7 +6204,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -6213,7 +6230,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>71</v>
       </c>
@@ -6239,7 +6256,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>71</v>
       </c>
@@ -6265,7 +6282,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>71</v>
       </c>
@@ -6291,7 +6308,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -6317,7 +6334,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>71</v>
       </c>
@@ -6343,7 +6360,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>71</v>
       </c>
@@ -6369,7 +6386,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>71</v>
       </c>
@@ -6395,7 +6412,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>71</v>
       </c>
@@ -6421,7 +6438,7 @@
         <v>4396</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>71</v>
       </c>
@@ -6447,7 +6464,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -6473,7 +6490,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>71</v>
       </c>
@@ -6499,7 +6516,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>71</v>
       </c>
@@ -6525,7 +6542,7 @@
         <v>3983</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>71</v>
       </c>
@@ -6551,7 +6568,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>71</v>
       </c>
@@ -6577,7 +6594,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>71</v>
       </c>
@@ -6603,7 +6620,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>71</v>
       </c>
@@ -6629,7 +6646,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>71</v>
       </c>
@@ -15596,7 +15613,7 @@
         <v>811</v>
       </c>
       <c r="G397" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H397">
         <v>24</v>
@@ -15622,7 +15639,7 @@
         <v>811</v>
       </c>
       <c r="G398" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H398">
         <v>22</v>
@@ -15648,7 +15665,7 @@
         <v>813</v>
       </c>
       <c r="G399" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H399">
         <v>51</v>
@@ -15726,7 +15743,7 @@
         <v>43</v>
       </c>
       <c r="G402" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H402">
         <v>35</v>
@@ -15752,7 +15769,7 @@
         <v>977</v>
       </c>
       <c r="G403" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H403">
         <v>1</v>
@@ -15778,7 +15795,7 @@
         <v>43</v>
       </c>
       <c r="G404" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H404">
         <v>13</v>
@@ -15830,7 +15847,7 @@
         <v>834</v>
       </c>
       <c r="G406" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H406">
         <v>9</v>
@@ -17400,6 +17417,7 @@
   <autoFilter ref="A1:H466" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
+        <filter val="BEA/"/>
         <filter val="ETC/"/>
       </filters>
     </filterColumn>
@@ -43038,7 +43056,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -43109,7 +43127,7 @@
       <c r="I2" t="b">
         <v>1</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="14" t="s">
         <v>825</v>
       </c>
     </row>
@@ -43132,6 +43150,7 @@
       <c r="I3" t="b">
         <v>1</v>
       </c>
+      <c r="K3" s="15"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -43158,7 +43177,7 @@
       <c r="I4" t="b">
         <v>1</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="15" t="s">
         <v>825</v>
       </c>
     </row>
@@ -43187,7 +43206,7 @@
       <c r="I5" t="b">
         <v>1</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="15" t="s">
         <v>825</v>
       </c>
     </row>
@@ -43216,7 +43235,7 @@
       <c r="I6" t="b">
         <v>1</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="15" t="s">
         <v>825</v>
       </c>
     </row>
@@ -43245,7 +43264,7 @@
       <c r="I7" t="b">
         <v>1</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="15" t="s">
         <v>825</v>
       </c>
     </row>
@@ -43274,7 +43293,7 @@
       <c r="I8" t="b">
         <v>1</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="15" t="s">
         <v>825</v>
       </c>
     </row>
@@ -43478,6 +43497,7 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/tables.xlsx
+++ b/data/tables.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA414151-D48E-420B-B3D7-9A1F063B5F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2A2510-E307-4174-AA21-2AD8206C00A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5205,8 +5205,8 @@
   <sheetPr codeName="工作表1" filterMode="1"/>
   <dimension ref="A1:J466"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="G407" sqref="G407"/>
+    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
+      <selection activeCell="G413" sqref="G413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15873,7 +15873,7 @@
         <v>43</v>
       </c>
       <c r="G407" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H407">
         <v>1531</v>
@@ -15899,7 +15899,7 @@
         <v>43</v>
       </c>
       <c r="G408" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H408">
         <v>112</v>
@@ -15925,7 +15925,7 @@
         <v>43</v>
       </c>
       <c r="G409" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H409">
         <v>13</v>
@@ -15951,7 +15951,7 @@
         <v>43</v>
       </c>
       <c r="G410" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H410">
         <v>19</v>
@@ -15977,7 +15977,7 @@
         <v>43</v>
       </c>
       <c r="G411" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H411">
         <v>58</v>
@@ -16003,7 +16003,7 @@
         <v>43</v>
       </c>
       <c r="G412" t="s">
-        <v>1094</v>
+        <v>1296</v>
       </c>
       <c r="H412">
         <v>1164</v>

--- a/data/tables.xlsx
+++ b/data/tables.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4428E66D-CA53-47EE-9EBE-6E8DA04A005E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4295ACBD-2355-4C39-B360-9EDAF39B3497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5210,8 +5210,8 @@
   <sheetPr codeName="工作表1" filterMode="1"/>
   <dimension ref="A1:J466"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A439" workbookViewId="0">
-      <selection activeCell="G460" sqref="G460"/>
+    <sheetView tabSelected="1" topLeftCell="A446" workbookViewId="0">
+      <selection activeCell="G461" sqref="G461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -17282,7 +17282,7 @@
         <v>1040</v>
       </c>
       <c r="G461" t="s">
-        <v>1093</v>
+        <v>1295</v>
       </c>
       <c r="H461">
         <v>4</v>
@@ -17308,7 +17308,7 @@
         <v>605</v>
       </c>
       <c r="G462" t="s">
-        <v>1093</v>
+        <v>1295</v>
       </c>
       <c r="H462">
         <v>7</v>
@@ -17334,7 +17334,7 @@
         <v>43</v>
       </c>
       <c r="G463" t="s">
-        <v>1093</v>
+        <v>1295</v>
       </c>
       <c r="H463">
         <v>176</v>
@@ -17360,7 +17360,7 @@
         <v>43</v>
       </c>
       <c r="G464" t="s">
-        <v>1093</v>
+        <v>1295</v>
       </c>
       <c r="H464">
         <v>3</v>
@@ -17386,7 +17386,7 @@
         <v>43</v>
       </c>
       <c r="G465" t="s">
-        <v>1093</v>
+        <v>1295</v>
       </c>
       <c r="H465">
         <v>2</v>
@@ -17412,7 +17412,7 @@
         <v>610</v>
       </c>
       <c r="G466" t="s">
-        <v>1093</v>
+        <v>1295</v>
       </c>
       <c r="H466">
         <v>12</v>

--- a/data/tables.xlsx
+++ b/data/tables.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4295ACBD-2355-4C39-B360-9EDAF39B3497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EC960A-EC2E-412E-A85D-EF2E72821010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4785,7 +4785,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>web crawler/manually/DIY</t>
+    <t>web crawler/DIY</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5210,8 +5210,8 @@
   <sheetPr codeName="工作表1" filterMode="1"/>
   <dimension ref="A1:J466"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A446" workbookViewId="0">
-      <selection activeCell="G461" sqref="G461"/>
+    <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
+      <selection activeCell="G454" sqref="G454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
